--- a/Output_testing/R1_201907/Country/HKD/MN/LIECHTENSTEIN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/LIECHTENSTEIN_201907_HKD_MN.xlsx
@@ -550,11 +550,15 @@
       <c r="E7" s="8" t="n">
         <v>0.848628</v>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.103974</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>-40.15933479345568</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/LIECHTENSTEIN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/LIECHTENSTEIN_201907_HKD_MN.xlsx
@@ -814,136 +814,447 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE AND STATIONERY SUPPLIES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>37.999525</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>11.20412429442398</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>13.939619</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>10.1742807035814</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>45.305281</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>42.5728863167589</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>18.492692</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>45.17419972571112</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>5.384650979689543</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>237.169024</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>69.9290642102296</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>50.551994</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>36.89700393402162</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>16.213387</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>15.23554575371945</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>7.46193</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>18.22810416997566</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>86.05497175613155</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>26.82342</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>7.908860220793239</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>36.282802</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>26.48217374237162</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>18.596353</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>17.47479332873619</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>3.135822</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>7.660228663965143</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-74.86657328192337</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>NATURAL ABRASIVES, N.E.S. (INCLUDING INDUSTRIAL DIAMONDS)</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>6.844057</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>2.01796378523475</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>8.537754</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>6.231555236489956</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>4.161144</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>3.910182357320847</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>2.691195</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>6.574087776448942</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>24.17671405434587</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>HEATING AND COOLING EQUIPMENT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.2847964108010372</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>2.346825</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.205286265200026</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1.36851</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.343014855091564</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-41.68674698795181</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>1.56714</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.462069758681552</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>2.763679</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.017160291152372</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>6.482851</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>6.091865507499815</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1.290378</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.152152942019673</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-74.65348798426383</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD EQUIPMENT OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>7.834503</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.309995859080807</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>3.630746</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.650017117928785</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>2.587293</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>2.431251463977148</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>1.22326</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.988196178061765</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-26.10250297973779</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>0.50193</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.4716582340361335</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>0.976989</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.386602027212846</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>94.64646464646465</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ROTATING ELECTRIC PLANT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>0.5498960000000001</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.1621363196778531</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>1.388301</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.013296279838262</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>1.155399</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.085716039979907</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>0.8099189999999999</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.978481157186213</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>30.15597781020396</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>1.048274</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.3090826053908045</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>1.619599</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.182116588210892</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>1.129265</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.061158200663069</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>0.736158</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.798296782408967</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>150.6453754617729</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>19.320743</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>5.696702946487413</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>17.879611</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>13.05001099275681</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>7.938429</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>7.459656532108521</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>2.749549</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>6.716635721918111</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-48.5553757504897</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -975,136 +1286,611 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>0.550939</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>38.84924401295776</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>0.797187</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>93.93833340403569</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>6.06166659596431</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>0.812045</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>57.26102954138713</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>3.889726445655102</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>WORN CLOTHING AND OTHER WORN TEXTILE ARTICLES; RAGS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>NATURAL ABRASIVES, N.E.S. (INCLUDING INDUSTRIAL DIAMONDS)</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>CARBOXYLIC ACIDS AND THEIR ANHYDRIDES, HALIDES, PEROXIDES AND PEROXYACIDS; THEIR HALOGENATED, SULPHONATED, NITRATED OR NITROSATED DERIVATIVES</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>INORGANIC CHEMICAL ELEMENTS, OXIDES AND HALOGEN SALTS</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>OTHER INORGANIC CHEMICALS; ORGANIC AND INORGANIC COMPOUNDS OF PRECIOUS METALS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>RADIO-ACTIVE AND ASSOCIATED MATERIALS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1136,136 +1922,447 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE AND STATIONERY SUPPLIES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>37.999525</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>11.25116982539707</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>13.939619</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>10.2376928221897</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>45.305281</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>42.61452209062266</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>18.492692</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>45.17419972571112</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>5.384650979689543</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>237.169024</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>70.22269268754475</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>50.551994</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>37.12696782610605</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>16.213387</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>15.25044593532737</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>7.46193</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>18.22810416997566</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>86.05497175613155</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>26.82342</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>7.942069110546838</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>36.282802</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>26.64722626955084</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>18.596353</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>17.49188346770252</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>3.135822</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>7.660228663965143</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-74.86657328192337</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>NATURAL ABRASIVES, N.E.S. (INCLUDING INDUSTRIAL DIAMONDS)</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>6.844057</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>2.02643710945591</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>8.537754</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>6.270393964384634</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>4.161144</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>3.91400646892052</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>2.691195</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>6.574087776448942</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>24.17671405434587</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>HEATING AND COOLING EQUIPMENT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.2865714300193075</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>2.346825</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.207443008803444</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1.36851</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.343014855091564</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-41.68674698795181</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>1.56714</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.4640099653922718</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>2.763679</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.029732423901715</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>6.482851</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>6.097823279138589</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1.290378</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.152152942019673</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-74.65348798426383</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD EQUIPMENT OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>7.834503</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.319695410681656</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>3.630746</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.666533587710966</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>2.587293</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.433629198843582</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>1.22326</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.988196178061765</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-26.10250297973779</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>0.50193</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.4721195101504002</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>0.976989</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.386602027212846</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>94.64646464646465</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ROTATING ELECTRIC PLANT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>0.5498960000000001</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.162817121590508</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>1.388301</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.01961173994345</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>1.155399</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.086777857287395</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>0.8099189999999999</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.978481157186213</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>30.15597781020396</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>1.048274</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.3103804270592406</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>1.619599</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.189484236055922</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>1.129265</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.062196000697292</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>0.736158</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.798296782408967</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>150.6453754617729</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>17.902597</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>5.300728342331756</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>17.030983</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>12.50808737411939</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>7.834455</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>7.369153182506233</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>2.749549</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>6.716635721918111</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-47.53472959639193</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1297,136 +2394,469 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>GLASSWARE</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>10.235558</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>32.03619131702852</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>3.265706</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>12.83246281374679</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>6.13684</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>13.4621433212274</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>15.391792</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>45.10772266546284</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>255.1179481878865</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>6.87498</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>21.5179450481102</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>3.127467</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>12.28925812021053</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>7.088514</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>15.54979295574382</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>6.366491</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>18.65786065587199</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>15.352284726767</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.3012927956395847</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>0.85672</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>3.366447421106845</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>6.452751</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>14.15514479409491</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>3.835581</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>11.24068750467253</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>5.434946046650979</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>4.638525</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>14.51808238777209</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>5.424411</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>21.31500889669158</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>5.802498</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>12.72871049222977</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>3.050723</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>8.940555265634359</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-7.940665072154395</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>2.937611</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>9.194405230375075</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>3.291144</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>12.93242043058557</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>11.553611</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>25.34469974118755</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>1.722234</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>5.047239050334797</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-76.26381786650639</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>STRUCTURES AND PARTS OF STRUCTURES, N.E.S., OF IRON, STEEL OR ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.5073429770731653</v>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>0.708732</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.077034727349409</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.2565854180083471</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.391414113034704</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>0.965597</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>2.118191969245933</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.459148458900732</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-7.155044614136663</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>MINERAL MANUFACTURES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.7520987445137854</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>1.129135</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.476938815255751</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.428663994767762</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>HEATING AND COOLING EQUIPMENT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.07914870943284354</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>1.344128</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>5.281697916749349</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>0.667161</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.463524713098825</v>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.365986506360547</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-30.13590422701566</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>MEDICINAL AND PHARMACEUTICAL PRODUCTS, OTHER THAN MEDICAMENTS OF GROUP 542</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>1.546557</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>4.840556414676138</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>2.641728</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>10.3805658941845</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>1.960212</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>4.300039578022207</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.183900299332117</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-73.80817924657362</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>5.351127</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>16.74844970188405</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>4.951984</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>19.45862564917635</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>3.829587</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>8.400813619893833</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>1.191278</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>3.49120087131292</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-61.13766030236392</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
